--- a/data/aoe2_spillanalyse.xlsx
+++ b/data/aoe2_spillanalyse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eivind Hageberg\OneDrive - ideas2evidence AS\Dokumenter\R\prosjekter\aoe2\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ideas2evidence-my.sharepoint.com/personal/eivind_hageberg_ideas2evidence_com/Documents/Dokumenter/R/prosjekter/aoe_dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95473F5A-5270-46DF-B9C6-846D785377B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{95473F5A-5270-46DF-B9C6-846D785377B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB721A39-F174-43B6-8C35-81BFACCD0C19}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C23562C8-30B2-48BB-AFC2-202F618388D6}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="99">
   <si>
     <t>spill_id</t>
   </si>
@@ -275,13 +275,76 @@
   </si>
   <si>
     <t>https://aoe.ms/replay/?gameId=151431315&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=155319830&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>oasis</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=156077695&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=156090491&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=156758847&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=156767098&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=157731486&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=157736807&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=158052460&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>team moats</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=158059140&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=158065701&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>nile delta</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=158790287&amp;profileId=5692051</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=158799643&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>four lakes</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=159433555&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=159445032&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=159833521&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=159840265&amp;profileId=2176509</t>
+  </si>
+  <si>
+    <t>https://aoe.ms/replay/?gameId=160443236&amp;profileId=2176509</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -297,16 +360,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -325,12 +408,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -342,14 +500,62 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperkobling" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0\ %"/>
@@ -388,7 +594,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Eivind Hageberg" refreshedDate="44612.798396296297" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="31" xr:uid="{40E48118-B248-4C89-868F-F521A6E4D0C6}">
   <cacheSource type="worksheet">
-    <worksheetSource name="rådata"/>
+    <worksheetSource ref="A1:I49" sheet="raw" r:id="rId2"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="spill_nr" numFmtId="0">
@@ -829,7 +1035,7 @@
     <dataField name="Antall av spill_nr2" fld="0" subtotal="count" baseField="5" baseItem="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="7">
+    <format dxfId="9">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4" count="0" selected="0"/>
@@ -837,7 +1043,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="8">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="3">
           <reference field="4294967294" count="1" selected="0">
@@ -850,7 +1056,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="5">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -862,7 +1068,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="6">
       <pivotArea field="4" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -871,7 +1077,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="5">
       <pivotArea field="4" grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -880,7 +1086,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="4">
       <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -892,7 +1098,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="1">
+    <format dxfId="3">
       <pivotArea field="4" grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" axis="axisCol" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -918,21 +1124,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{49936E0A-B00E-4F12-A793-E5BD785D342B}" name="rådata" displayName="rådata" ref="A1:I49" totalsRowShown="0">
-  <autoFilter ref="A1:I49" xr:uid="{49936E0A-B00E-4F12-A793-E5BD785D342B}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H45">
-    <sortCondition ref="D1:D45"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{19E7A417-C460-4D74-ABF7-95AD12862551}" name="Tabell1" displayName="Tabell1" ref="A1:I73" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="2">
+  <autoFilter ref="A1:I73" xr:uid="{19E7A417-C460-4D74-ABF7-95AD12862551}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{A0C6DCA4-1172-44E5-8763-E6AB97557678}" name="spill_nr"/>
-    <tableColumn id="2" xr3:uid="{06015DF4-4612-4CFF-8ADB-2B442AAE158C}" name="spill_id"/>
-    <tableColumn id="3" xr3:uid="{C45484CF-8516-431C-BC89-EA069BF93BF9}" name="spill_nedlasting" dataCellStyle="Hyperkobling"/>
-    <tableColumn id="4" xr3:uid="{C1917020-F896-414A-B3A4-E5700D427CE4}" name="dato" dataDxfId="0"/>
-    <tableColumn id="5" xr3:uid="{5FF54451-E59D-4C9E-A178-86F29F915C3F}" name="resultat"/>
-    <tableColumn id="6" xr3:uid="{A3D4384F-1301-4939-BB59-7E47CB7813B6}" name="bane"/>
-    <tableColumn id="7" xr3:uid="{A0720738-69A2-4F27-A65F-D7B04228159A}" name="varighet_min_ingametime"/>
-    <tableColumn id="8" xr3:uid="{5F9224E9-9578-4C07-93A1-264FCAB6985F}" name="merknad"/>
-    <tableColumn id="9" xr3:uid="{00237CD9-FB24-469D-B31B-F99E98C6D256}" name="ranked"/>
+    <tableColumn id="1" xr3:uid="{2E925184-6492-4A2F-B7FF-FDFDCE9C6EAD}" name="spill_nr"/>
+    <tableColumn id="2" xr3:uid="{8932D7E7-F3BD-4551-98E2-806B4A64EE1A}" name="spill_id"/>
+    <tableColumn id="3" xr3:uid="{5B152B04-B5DF-4587-98B5-78BB11A75338}" name="spill_nedlasting" dataCellStyle="Hyperkobling"/>
+    <tableColumn id="4" xr3:uid="{E2CCF95A-6C6E-4224-A063-EFE39C411B7A}" name="dato" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{92DE35B5-1036-446F-860E-2D34431780E9}" name="resultat"/>
+    <tableColumn id="6" xr3:uid="{05501A91-6E6E-4003-B581-802B52DE597D}" name="bane"/>
+    <tableColumn id="7" xr3:uid="{4741E26B-A099-4E39-8F30-0CC2762006E8}" name="varighet_min_ingametime"/>
+    <tableColumn id="8" xr3:uid="{1ED6BE23-AA9E-479D-8462-82B800910F64}" name="merknad"/>
+    <tableColumn id="9" xr3:uid="{F6182AD0-061F-41E7-B1CB-02F8FD6852E2}" name="ranked"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1541,10 +1744,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1244159-27AC-4B26-BE92-7EC8C6444933}">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1554,1264 +1758,1317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="25" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="A2" s="12">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13">
         <v>96540048</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C2" s="13"/>
+      <c r="D2" s="14">
         <v>44357</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="E2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="13">
         <v>50</v>
       </c>
-      <c r="I2">
+      <c r="H2" s="13"/>
+      <c r="I2" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="17">
         <v>96553972</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18">
         <v>44357</v>
       </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="E3" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="17">
         <v>73</v>
       </c>
-      <c r="I3">
+      <c r="H3" s="17"/>
+      <c r="I3" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="12">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="13">
         <v>114397837</v>
       </c>
-      <c r="D4" s="1">
+      <c r="C4" s="13"/>
+      <c r="D4" s="14">
         <v>44447</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E4" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="13">
         <v>56</v>
       </c>
-      <c r="I4">
+      <c r="H4" s="13"/>
+      <c r="I4" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="16">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17">
         <v>114405317</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18">
         <v>44447</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="17">
         <v>73</v>
       </c>
-      <c r="I5">
+      <c r="H5" s="17"/>
+      <c r="I5" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="12">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="13">
         <v>120366810</v>
       </c>
-      <c r="D6" s="1">
+      <c r="C6" s="13"/>
+      <c r="D6" s="14">
         <v>44477</v>
       </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="13">
         <v>38</v>
       </c>
-      <c r="I6">
+      <c r="H6" s="13"/>
+      <c r="I6" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="17">
         <v>120372588</v>
       </c>
-      <c r="D7" s="1">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
         <v>44477</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="17">
         <v>61</v>
       </c>
-      <c r="I7">
+      <c r="H7" s="17"/>
+      <c r="I7" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="12">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="13">
         <v>120380200</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C8" s="13"/>
+      <c r="D8" s="14">
         <v>44477</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="13">
         <v>40</v>
       </c>
-      <c r="I8">
+      <c r="H8" s="13"/>
+      <c r="I8" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="17">
         <v>134388317</v>
       </c>
-      <c r="D9" s="1">
+      <c r="C9" s="17"/>
+      <c r="D9" s="18">
         <v>44537</v>
       </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="E9" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <v>49</v>
       </c>
-      <c r="I9">
+      <c r="H9" s="17"/>
+      <c r="I9" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="12">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="13">
         <v>134393822</v>
       </c>
-      <c r="D10" s="1">
+      <c r="C10" s="13"/>
+      <c r="D10" s="14">
         <v>44537</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="13">
         <v>163</v>
       </c>
-      <c r="I10">
+      <c r="H10" s="13"/>
+      <c r="I10" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="17">
         <v>134395125</v>
       </c>
-      <c r="D11" s="1">
+      <c r="C11" s="17"/>
+      <c r="D11" s="18">
         <v>44537</v>
       </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="17">
         <v>71</v>
       </c>
-      <c r="I11">
+      <c r="H11" s="17"/>
+      <c r="I11" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="12">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="13">
         <v>134402590</v>
       </c>
-      <c r="D12" s="1">
+      <c r="C12" s="13"/>
+      <c r="D12" s="14">
         <v>44537</v>
       </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="E12" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="13">
         <v>95</v>
       </c>
-      <c r="I12">
+      <c r="H12" s="13"/>
+      <c r="I12" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="17">
         <v>138015663</v>
       </c>
-      <c r="D13" s="1">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18">
         <v>44572</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="17">
         <v>57</v>
       </c>
-      <c r="I13">
+      <c r="H13" s="17"/>
+      <c r="I13" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="12">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="13">
         <v>138023173</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="14">
         <v>44572</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="13">
         <v>63</v>
       </c>
-      <c r="I14">
+      <c r="H14" s="13"/>
+      <c r="I14" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="17">
         <v>138338413</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="18">
         <v>44574</v>
       </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="E15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="17">
         <v>62</v>
       </c>
-      <c r="I15">
+      <c r="H15" s="17"/>
+      <c r="I15" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="12">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="13">
         <v>138345683</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="14">
         <v>44574</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="13">
         <v>30</v>
       </c>
-      <c r="I16">
+      <c r="H16" s="13"/>
+      <c r="I16" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="17">
         <v>139086476</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="18">
         <v>44578</v>
       </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="E17" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="17">
         <v>79</v>
       </c>
-      <c r="I17">
+      <c r="H17" s="17"/>
+      <c r="I17" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="12">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="13">
         <v>139096574</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="14">
         <v>44578</v>
       </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="13">
         <v>59</v>
       </c>
-      <c r="I18">
+      <c r="H18" s="13"/>
+      <c r="I18" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="17">
         <v>139409489</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="18">
         <v>44580</v>
       </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="E19" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="17">
         <v>65</v>
       </c>
-      <c r="I19">
+      <c r="H19" s="17"/>
+      <c r="I19" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="12">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="13">
         <v>139417431</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="14">
         <v>44580</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="13">
         <v>31</v>
       </c>
-      <c r="I20">
+      <c r="H20" s="13"/>
+      <c r="I20" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="17">
         <v>139421726</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="18">
         <v>44580</v>
       </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="17">
         <v>76</v>
       </c>
-      <c r="I21">
+      <c r="H21" s="17"/>
+      <c r="I21" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="12">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="13">
         <v>140337913</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="14">
         <v>44585</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="13">
         <v>34</v>
       </c>
-      <c r="I22">
+      <c r="H22" s="13"/>
+      <c r="I22" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="17">
         <v>140343238</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="18">
         <v>44585</v>
       </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="E23" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="17">
         <v>85</v>
       </c>
-      <c r="I23">
+      <c r="H23" s="17"/>
+      <c r="I23" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="12">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="13">
         <v>140353487</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="14">
         <v>44585</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="13">
         <v>45</v>
       </c>
-      <c r="I24">
+      <c r="H24" s="13"/>
+      <c r="I24" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="17">
         <v>142594492</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="18">
         <v>44597</v>
       </c>
-      <c r="E25" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E25" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="17">
         <v>125</v>
       </c>
-      <c r="I25">
+      <c r="H25" s="17"/>
+      <c r="I25" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="12">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="13">
         <v>142611414</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="14">
         <v>44597</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-      <c r="I26">
+      <c r="G26" s="13">
+        <v>1</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="17">
         <v>142612402</v>
       </c>
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
+      <c r="C27" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
         <v>44597</v>
       </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="E27" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="17">
         <v>82</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="H27" s="17"/>
+      <c r="I27" s="19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="13">
         <v>143341453</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="14">
         <v>44601</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="13">
         <v>131</v>
       </c>
-      <c r="I28">
+      <c r="H28" s="13"/>
+      <c r="I28" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="17">
         <v>143357398</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="18">
         <v>44601</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="17">
         <v>68</v>
       </c>
-      <c r="I29">
+      <c r="H29" s="17"/>
+      <c r="I29" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="12">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="13">
         <v>144134248</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="14">
         <v>44605</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="13">
         <v>166</v>
       </c>
-      <c r="I30">
+      <c r="H30" s="13"/>
+      <c r="I30" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="17">
         <v>144300723</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="18">
         <v>44606</v>
       </c>
-      <c r="E31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="17">
         <v>87</v>
       </c>
-      <c r="I31">
+      <c r="H31" s="17"/>
+      <c r="I31" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="12">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="13">
         <v>144309829</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="14">
         <v>44606</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="13">
         <v>62</v>
       </c>
-      <c r="I32">
+      <c r="H32" s="13"/>
+      <c r="I32" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="17">
         <v>145357575</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D33" s="1">
+      <c r="D33" s="18">
         <v>44612</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="17">
         <v>41</v>
       </c>
-      <c r="I33">
+      <c r="H33" s="17"/>
+      <c r="I33" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="12">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="13">
         <v>145364008</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="14">
         <v>44612</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="13">
         <v>90</v>
       </c>
-      <c r="I34">
+      <c r="H34" s="13"/>
+      <c r="I34" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="17">
         <v>145377104</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D35" s="1">
+      <c r="D35" s="18">
         <v>44612</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="17">
         <v>97</v>
       </c>
-      <c r="I35">
+      <c r="H35" s="17"/>
+      <c r="I35" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="12">
         <v>39</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="13">
         <v>145841235</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="14">
         <v>44615</v>
       </c>
-      <c r="E36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="E36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G36">
+      <c r="G36" s="13">
         <v>39</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="16">
         <v>40</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="17">
         <v>145849908</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="1">
+      <c r="D37" s="18">
         <v>44615</v>
       </c>
-      <c r="E37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="17">
         <v>35</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="12">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="13">
         <v>146350054</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="14">
         <v>44618</v>
       </c>
-      <c r="E38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="E38" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="13">
         <v>43</v>
       </c>
-      <c r="I38">
+      <c r="H38" s="13"/>
+      <c r="I38" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="16">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="17">
         <v>146355464</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="18">
         <v>44618</v>
       </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="E39" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="17">
         <v>25</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="12">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="13">
         <v>146358807</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="1">
+      <c r="D40" s="14">
         <v>44618</v>
       </c>
-      <c r="E40" t="s">
-        <v>4</v>
-      </c>
-      <c r="F40" t="s">
+      <c r="E40" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="13">
         <v>47</v>
       </c>
-      <c r="I40">
+      <c r="H40" s="13"/>
+      <c r="I40" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="16">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="17">
         <v>146364837</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="1">
+      <c r="D41" s="18">
         <v>44618</v>
       </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="E41" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="17">
         <v>57</v>
       </c>
-      <c r="I41">
+      <c r="H41" s="17"/>
+      <c r="I41" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="12">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="13">
         <v>146998431</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="1">
+      <c r="D42" s="14">
         <v>44622</v>
       </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="E42" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="13">
         <v>53</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="16">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="17">
         <v>147005976</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D43" s="18">
         <v>44622</v>
       </c>
-      <c r="E43" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="E43" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="17">
         <v>67</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="12">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="13">
         <v>147153653</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="1">
+      <c r="D44" s="14">
         <v>44623</v>
       </c>
-      <c r="E44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E44" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="13">
         <v>44</v>
       </c>
-      <c r="I44">
+      <c r="H44" s="13"/>
+      <c r="I44" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="16">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="17">
         <v>147158127</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="1">
+      <c r="D45" s="18">
         <v>44623</v>
       </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
+      <c r="E45" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="17">
         <v>66</v>
       </c>
-      <c r="I45">
+      <c r="H45" s="17"/>
+      <c r="I45" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="12">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="13">
         <v>148005103</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="1">
+      <c r="D46" s="14">
         <v>44628</v>
       </c>
-      <c r="E46" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="E46" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="13">
         <v>43</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="15">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="16">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="17">
         <v>148010747</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="18">
         <v>44628</v>
       </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
+      <c r="E47" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="17">
         <v>38</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="12">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="13">
         <v>148015004</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="1">
+      <c r="D48" s="14">
         <v>44628</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="13">
         <v>34</v>
       </c>
-      <c r="I48">
+      <c r="H48" s="13"/>
+      <c r="I48" s="15">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="10">
         <v>149460814</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D49" s="1">
+      <c r="D49" s="8">
         <v>44637</v>
       </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
+      <c r="E49" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="10">
         <v>66</v>
       </c>
-      <c r="I49">
+      <c r="H49" s="10"/>
+      <c r="I49" s="11">
         <v>1</v>
       </c>
     </row>
@@ -2996,6 +3253,454 @@
       <c r="I56">
         <v>1</v>
       </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>155319830</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="1">
+        <v>44671</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57">
+        <v>192</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>156077695</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58" s="1">
+        <v>44675</v>
+      </c>
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58">
+        <v>99</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>156090491</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59" s="1">
+        <v>44675</v>
+      </c>
+      <c r="E59" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59">
+        <v>89</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>156758847</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="1">
+        <v>44679</v>
+      </c>
+      <c r="E60" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>70</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>156767098</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="1">
+        <v>44679</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61">
+        <v>83</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>157731486</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" s="1">
+        <v>44679</v>
+      </c>
+      <c r="E62" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>45</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>157736807</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D63" s="1">
+        <v>44684</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63">
+        <v>59</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>158052460</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" s="1">
+        <v>44686</v>
+      </c>
+      <c r="E64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" t="s">
+        <v>87</v>
+      </c>
+      <c r="G64">
+        <v>51</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>158059140</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D65" s="1">
+        <v>44686</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G65">
+        <v>59</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>158065701</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="1">
+        <v>44686</v>
+      </c>
+      <c r="E66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" t="s">
+        <v>90</v>
+      </c>
+      <c r="G66">
+        <v>52</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>158790287</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="1">
+        <v>44690</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67">
+        <v>81</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>158799643</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D68" s="1">
+        <v>44690</v>
+      </c>
+      <c r="E68" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" t="s">
+        <v>93</v>
+      </c>
+      <c r="G68">
+        <v>11</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>159433555</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44694</v>
+      </c>
+      <c r="E69" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69">
+        <v>100</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>159445032</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44694</v>
+      </c>
+      <c r="E70" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>62</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>159833521</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D71" s="1">
+        <v>44696</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>54</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>159840265</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D72" s="1">
+        <v>44696</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>23</v>
+      </c>
+      <c r="G72">
+        <v>154</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>160443236</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="1">
+        <v>44700</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>56</v>
+      </c>
+      <c r="G73">
+        <v>70</v>
+      </c>
+      <c r="H73" t="s">
+        <v>54</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1048576" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D1048576" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3028,10 +3733,26 @@
     <hyperlink ref="C54" r:id="rId27" xr:uid="{B9FBF8F7-A2A5-4490-A9FC-4C2FFD19D9F1}"/>
     <hyperlink ref="C55" r:id="rId28" xr:uid="{AEB06657-DBD6-47BA-8367-AD69C33A1FF0}"/>
     <hyperlink ref="C56" r:id="rId29" xr:uid="{D9F5EE6E-4DA3-4727-891A-2D22DA16EA4F}"/>
+    <hyperlink ref="C58" r:id="rId30" xr:uid="{3371B9C0-5483-4107-8DA8-733616C6A6FF}"/>
+    <hyperlink ref="C59" r:id="rId31" xr:uid="{9B7BB57E-04A5-4D87-ADC4-3B186BABB238}"/>
+    <hyperlink ref="C60" r:id="rId32" xr:uid="{985090CE-CC87-491E-B2CC-1676816796CD}"/>
+    <hyperlink ref="C61" r:id="rId33" xr:uid="{3DE706D0-1CAF-4A4B-B1D0-E37AC754A482}"/>
+    <hyperlink ref="C62" r:id="rId34" xr:uid="{3CDAF7AD-E500-4C16-AD08-5D444BC97384}"/>
+    <hyperlink ref="C63" r:id="rId35" xr:uid="{7F61EFBB-131A-4B19-B21B-E21B385C8035}"/>
+    <hyperlink ref="C64" r:id="rId36" xr:uid="{0B5B4512-6AA4-4953-A6B4-E9A10DFE5702}"/>
+    <hyperlink ref="C65" r:id="rId37" xr:uid="{E909516B-0496-4B13-9613-00A834B7397C}"/>
+    <hyperlink ref="C66" r:id="rId38" xr:uid="{3399C0A7-A90A-4583-8B25-73CC38BB6A03}"/>
+    <hyperlink ref="C67" r:id="rId39" xr:uid="{2DD1401A-E3BE-4FBD-9B0B-748A1246FB93}"/>
+    <hyperlink ref="C68" r:id="rId40" xr:uid="{F4D3B415-0736-45C8-9B73-314B74A4E235}"/>
+    <hyperlink ref="C69" r:id="rId41" xr:uid="{B1D011FB-E2EE-47D1-AB1D-751D575D6452}"/>
+    <hyperlink ref="C70" r:id="rId42" xr:uid="{3D0C9905-0B47-4740-872F-ECA07B7DCBD1}"/>
+    <hyperlink ref="C71" r:id="rId43" xr:uid="{7C163AB0-6284-463F-8F20-B61B3B71CD5F}"/>
+    <hyperlink ref="C72" r:id="rId44" xr:uid="{55CFA24F-A3BB-4392-8AC8-7438501D6B7C}"/>
+    <hyperlink ref="C73" r:id="rId45" xr:uid="{C0AF2D18-DFE0-4886-A211-B045CB331622}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId46"/>
   </tableParts>
 </worksheet>
 </file>